--- a/data/pca/factorExposure/factorExposure_2010-04-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-05.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01444972532139442</v>
+        <v>-0.01700010726835262</v>
       </c>
       <c r="C2">
-        <v>0.00651522942306085</v>
+        <v>-0.001009765860670124</v>
       </c>
       <c r="D2">
-        <v>-0.01040922530207845</v>
+        <v>-0.008439482528593304</v>
       </c>
       <c r="E2">
-        <v>-0.01016652597260918</v>
+        <v>5.231225972805891e-05</v>
       </c>
       <c r="F2">
-        <v>-0.01600473718519523</v>
+        <v>0.01018252851878609</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1195790629455558</v>
+        <v>-0.09340476627120282</v>
       </c>
       <c r="C4">
-        <v>-0.07103434502506716</v>
+        <v>-0.01614792537091297</v>
       </c>
       <c r="D4">
-        <v>-0.01204777711535706</v>
+        <v>-0.0844981352657285</v>
       </c>
       <c r="E4">
-        <v>0.00636211637398571</v>
+        <v>-0.0308187194636496</v>
       </c>
       <c r="F4">
-        <v>0.006206936136308505</v>
+        <v>-0.03125508842976766</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1185358639733754</v>
+        <v>-0.1545168660424587</v>
       </c>
       <c r="C6">
-        <v>0.008131052141618383</v>
+        <v>-0.02455138320700132</v>
       </c>
       <c r="D6">
-        <v>-0.01312830051782914</v>
+        <v>0.02195411958303351</v>
       </c>
       <c r="E6">
-        <v>-0.03108096154541418</v>
+        <v>-0.008185450327033082</v>
       </c>
       <c r="F6">
-        <v>0.05629406662675616</v>
+        <v>-0.04787084252925923</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07401841739685779</v>
+        <v>-0.05906122877164119</v>
       </c>
       <c r="C7">
-        <v>-0.06802329689493583</v>
+        <v>0.0007304500389145567</v>
       </c>
       <c r="D7">
-        <v>-0.04220266545809098</v>
+        <v>-0.05222268576340834</v>
       </c>
       <c r="E7">
-        <v>-0.0227603564703676</v>
+        <v>-0.01543789955230331</v>
       </c>
       <c r="F7">
-        <v>-0.03605478319298566</v>
+        <v>-0.0498341324689044</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05356208312071672</v>
+        <v>-0.05786208848554635</v>
       </c>
       <c r="C8">
-        <v>-0.02969113883358048</v>
+        <v>0.01310008252974087</v>
       </c>
       <c r="D8">
-        <v>-0.02331929440800741</v>
+        <v>-0.03238407457651077</v>
       </c>
       <c r="E8">
-        <v>0.008254946636373424</v>
+        <v>-0.01603139880936292</v>
       </c>
       <c r="F8">
-        <v>0.02440214339657948</v>
+        <v>0.02958155398102917</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08571183825264535</v>
+        <v>-0.0711660218594717</v>
       </c>
       <c r="C9">
-        <v>-0.05905284117027718</v>
+        <v>-0.01216344014529505</v>
       </c>
       <c r="D9">
-        <v>-0.01732384459984691</v>
+        <v>-0.08388458183532321</v>
       </c>
       <c r="E9">
-        <v>0.01585007301479257</v>
+        <v>-0.02512305988445199</v>
       </c>
       <c r="F9">
-        <v>-0.005681127331932207</v>
+        <v>-0.05314785524955332</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.106278805432205</v>
+        <v>-0.09542204656971738</v>
       </c>
       <c r="C10">
-        <v>0.1728963996690973</v>
+        <v>-0.01771550057213794</v>
       </c>
       <c r="D10">
-        <v>0.0122827629863429</v>
+        <v>0.1716245317166349</v>
       </c>
       <c r="E10">
-        <v>-0.008743096709224884</v>
+        <v>0.04027879008367641</v>
       </c>
       <c r="F10">
-        <v>-0.04629370855851744</v>
+        <v>0.05348773998786561</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07944740228889852</v>
+        <v>-0.08737913827402932</v>
       </c>
       <c r="C11">
-        <v>-0.0569152743176077</v>
+        <v>-0.01164591958056346</v>
       </c>
       <c r="D11">
-        <v>-0.03254952309119835</v>
+        <v>-0.1144820065149712</v>
       </c>
       <c r="E11">
-        <v>0.02009538009096323</v>
+        <v>-0.04983439417654587</v>
       </c>
       <c r="F11">
-        <v>0.01112364634977146</v>
+        <v>-0.019950620517864</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08137453661911843</v>
+        <v>-0.09194069796742564</v>
       </c>
       <c r="C12">
-        <v>-0.080643005078402</v>
+        <v>-0.009263084461176973</v>
       </c>
       <c r="D12">
-        <v>-0.04481214044569026</v>
+        <v>-0.1232739822796549</v>
       </c>
       <c r="E12">
-        <v>0.0642244131128049</v>
+        <v>-0.04890425206009231</v>
       </c>
       <c r="F12">
-        <v>-0.01816049947747964</v>
+        <v>-0.02014925814803873</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0285593802240667</v>
+        <v>-0.04284545172649426</v>
       </c>
       <c r="C13">
-        <v>-0.02697613144420576</v>
+        <v>-0.003806505390583633</v>
       </c>
       <c r="D13">
-        <v>-0.004582628047290413</v>
+        <v>-0.04741610445414272</v>
       </c>
       <c r="E13">
-        <v>-0.01868035669238562</v>
+        <v>0.01107700031999301</v>
       </c>
       <c r="F13">
-        <v>-0.01277806573677222</v>
+        <v>-0.01335252892533509</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03737149586262933</v>
+        <v>-0.02221584727251159</v>
       </c>
       <c r="C14">
-        <v>-0.02009943271017795</v>
+        <v>-0.01429939896140082</v>
       </c>
       <c r="D14">
-        <v>0.001357929741962153</v>
+        <v>-0.03145289575847516</v>
       </c>
       <c r="E14">
-        <v>0.02097188018862322</v>
+        <v>-0.01892837318178738</v>
       </c>
       <c r="F14">
-        <v>0.004512670130730772</v>
+        <v>-0.01784714243538688</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01648494845707706</v>
+        <v>-0.03146582587020545</v>
       </c>
       <c r="C15">
-        <v>-0.007575212138861133</v>
+        <v>-0.005456712201953516</v>
       </c>
       <c r="D15">
-        <v>-0.01112620365985188</v>
+        <v>-0.04491584069851087</v>
       </c>
       <c r="E15">
-        <v>-0.04445325521895806</v>
+        <v>-0.009270363435604445</v>
       </c>
       <c r="F15">
-        <v>-0.01816994483395306</v>
+        <v>-0.02973190164306447</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08713779026863241</v>
+        <v>-0.07314336638622626</v>
       </c>
       <c r="C16">
-        <v>-0.0672232711664066</v>
+        <v>-0.003133976785341332</v>
       </c>
       <c r="D16">
-        <v>-0.04047972371543657</v>
+        <v>-0.1180564869523482</v>
       </c>
       <c r="E16">
-        <v>0.04314331525485224</v>
+        <v>-0.06422009144667969</v>
       </c>
       <c r="F16">
-        <v>0.00519892420717087</v>
+        <v>-0.02846871814734906</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02333473500296232</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003435942595019867</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01827681164777683</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.008750504573348607</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01681755409880047</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04858442251601416</v>
+        <v>-0.0607716232504408</v>
       </c>
       <c r="C20">
-        <v>-0.03275267120748431</v>
+        <v>-0.0007080782490563255</v>
       </c>
       <c r="D20">
-        <v>0.01046350436112498</v>
+        <v>-0.07460081369411077</v>
       </c>
       <c r="E20">
-        <v>-0.02742479625203037</v>
+        <v>-0.05588738895083204</v>
       </c>
       <c r="F20">
-        <v>-0.007918606913886355</v>
+        <v>-0.02703851997048671</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02916389188516366</v>
+        <v>-0.03862143893425209</v>
       </c>
       <c r="C21">
-        <v>-0.009539296676971586</v>
+        <v>-0.006930618492529717</v>
       </c>
       <c r="D21">
-        <v>0.01994060919253969</v>
+        <v>-0.03651976513006459</v>
       </c>
       <c r="E21">
-        <v>0.01405774958419823</v>
+        <v>0.007589416449275544</v>
       </c>
       <c r="F21">
-        <v>0.01963179238300978</v>
+        <v>0.02071894172357053</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0281443078742475</v>
+        <v>-0.04331294178857346</v>
       </c>
       <c r="C22">
-        <v>0.02259801784291206</v>
+        <v>-0.0003720027086702394</v>
       </c>
       <c r="D22">
-        <v>-0.04310939676026908</v>
+        <v>-0.0002247062937841372</v>
       </c>
       <c r="E22">
-        <v>-0.6032963256869014</v>
+        <v>-0.02920539179215031</v>
       </c>
       <c r="F22">
-        <v>-0.1738597858551793</v>
+        <v>0.007486122048794927</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02837097977131743</v>
+        <v>-0.04336694585429569</v>
       </c>
       <c r="C23">
-        <v>0.0220983428874814</v>
+        <v>-0.0003943225177319198</v>
       </c>
       <c r="D23">
-        <v>-0.04444068272544602</v>
+        <v>-0.000351611813668568</v>
       </c>
       <c r="E23">
-        <v>-0.6066730592190407</v>
+        <v>-0.02956543162014496</v>
       </c>
       <c r="F23">
-        <v>-0.1727041851465021</v>
+        <v>0.00703108445077339</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08761340294814608</v>
+        <v>-0.07950483863181415</v>
       </c>
       <c r="C24">
-        <v>-0.06700845532852935</v>
+        <v>-0.003355938212313565</v>
       </c>
       <c r="D24">
-        <v>-0.02649872519310913</v>
+        <v>-0.1187304041230651</v>
       </c>
       <c r="E24">
-        <v>0.03438627805012247</v>
+        <v>-0.05196249212249099</v>
       </c>
       <c r="F24">
-        <v>-0.001837197392937721</v>
+        <v>-0.02129777134333996</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09166780959175969</v>
+        <v>-0.08453178983013998</v>
       </c>
       <c r="C25">
-        <v>-0.0617017240820099</v>
+        <v>-0.005480129092689471</v>
       </c>
       <c r="D25">
-        <v>-0.03995665148649803</v>
+        <v>-0.1071546603585117</v>
       </c>
       <c r="E25">
-        <v>0.06594398295869559</v>
+        <v>-0.0349256151529376</v>
       </c>
       <c r="F25">
-        <v>-0.01371486878898869</v>
+        <v>-0.02902355910624201</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0376642211884792</v>
+        <v>-0.05424756283474986</v>
       </c>
       <c r="C26">
-        <v>0.0168372846405508</v>
+        <v>-0.01494928089995791</v>
       </c>
       <c r="D26">
-        <v>0.01609234555041492</v>
+        <v>-0.03792916229553972</v>
       </c>
       <c r="E26">
-        <v>-0.01441434329764749</v>
+        <v>-0.02817219167025243</v>
       </c>
       <c r="F26">
-        <v>0.02593188835401635</v>
+        <v>0.01250950978847272</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1138928412468111</v>
+        <v>-0.143708081386491</v>
       </c>
       <c r="C28">
-        <v>0.3177649784481292</v>
+        <v>-0.01607174258730672</v>
       </c>
       <c r="D28">
-        <v>-0.009722098947419147</v>
+        <v>0.2656428542642897</v>
       </c>
       <c r="E28">
-        <v>0.0327935280281471</v>
+        <v>0.06952332048362019</v>
       </c>
       <c r="F28">
-        <v>0.008072569704703001</v>
+        <v>-0.02927084337276287</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03193944307764514</v>
+        <v>-0.02693218436362979</v>
       </c>
       <c r="C29">
-        <v>-0.01624613636508833</v>
+        <v>-0.008758525018657991</v>
       </c>
       <c r="D29">
-        <v>-0.007239994308409149</v>
+        <v>-0.03009790563662836</v>
       </c>
       <c r="E29">
-        <v>0.03836410869639247</v>
+        <v>-0.01196684958536676</v>
       </c>
       <c r="F29">
-        <v>-0.03082554970715066</v>
+        <v>0.01356307681486692</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1028196480221353</v>
+        <v>-0.06235791345891942</v>
       </c>
       <c r="C30">
-        <v>-0.08748571131088077</v>
+        <v>-0.00458523503419195</v>
       </c>
       <c r="D30">
-        <v>-0.04901529052058617</v>
+        <v>-0.08660194967269562</v>
       </c>
       <c r="E30">
-        <v>0.04645242665552508</v>
+        <v>-0.02544237789826205</v>
       </c>
       <c r="F30">
-        <v>0.05324047464429613</v>
+        <v>-0.1042526832488309</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0296121520701158</v>
+        <v>-0.04815891905467472</v>
       </c>
       <c r="C31">
-        <v>-0.03104831517234431</v>
+        <v>-0.01495229181127866</v>
       </c>
       <c r="D31">
-        <v>-0.002226868561359378</v>
+        <v>-0.02799083291035313</v>
       </c>
       <c r="E31">
-        <v>-0.002774470867726131</v>
+        <v>-0.02735812709748402</v>
       </c>
       <c r="F31">
-        <v>-0.002338936815579428</v>
+        <v>0.005412728431153391</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05913368813890853</v>
+        <v>-0.04808827699861724</v>
       </c>
       <c r="C32">
-        <v>-0.01148581877832764</v>
+        <v>0.0001921714420359922</v>
       </c>
       <c r="D32">
-        <v>0.01751005823915289</v>
+        <v>-0.03050346339023742</v>
       </c>
       <c r="E32">
-        <v>0.06662877902734955</v>
+        <v>-0.02994750560973704</v>
       </c>
       <c r="F32">
-        <v>0.07662275247360981</v>
+        <v>-0.001256513844032383</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09493363293801522</v>
+        <v>-0.08957776150462349</v>
       </c>
       <c r="C33">
-        <v>-0.06799553978285174</v>
+        <v>-0.008864830168674015</v>
       </c>
       <c r="D33">
-        <v>-0.08248446916120612</v>
+        <v>-0.09592845979337696</v>
       </c>
       <c r="E33">
-        <v>0.02530425273672581</v>
+        <v>-0.04757028947329707</v>
       </c>
       <c r="F33">
-        <v>-0.01020970506388962</v>
+        <v>-0.04089724219503553</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0737799072722829</v>
+        <v>-0.0673429658294129</v>
       </c>
       <c r="C34">
-        <v>-0.05755652972523948</v>
+        <v>-0.01185455740377779</v>
       </c>
       <c r="D34">
-        <v>-0.02878180208250622</v>
+        <v>-0.09859900993418537</v>
       </c>
       <c r="E34">
-        <v>0.03822100606773255</v>
+        <v>-0.03626875302181509</v>
       </c>
       <c r="F34">
-        <v>-0.004247052207691994</v>
+        <v>-0.03872935829548078</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.009477372750738108</v>
+        <v>-0.02438550662814797</v>
       </c>
       <c r="C35">
-        <v>-0.01382541989295152</v>
+        <v>-0.002452667693971628</v>
       </c>
       <c r="D35">
-        <v>-0.003924386705733859</v>
+        <v>-0.01128980605956391</v>
       </c>
       <c r="E35">
-        <v>0.004379489892135513</v>
+        <v>-0.01105636893167795</v>
       </c>
       <c r="F35">
-        <v>-0.01338645000547304</v>
+        <v>-0.009205927550281849</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02584831582440051</v>
+        <v>-0.0243072387581893</v>
       </c>
       <c r="C36">
-        <v>-0.008977180849908227</v>
+        <v>-0.007264197746237943</v>
       </c>
       <c r="D36">
-        <v>-0.007409335319515621</v>
+        <v>-0.03731290960663831</v>
       </c>
       <c r="E36">
-        <v>-0.008377227393946111</v>
+        <v>-0.01808545072859197</v>
       </c>
       <c r="F36">
-        <v>0.01181139512107443</v>
+        <v>-0.01342814053535425</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.007817685994086521</v>
+        <v>-0.001531829472969463</v>
       </c>
       <c r="C38">
-        <v>-0.007500224141274265</v>
+        <v>-0.0002511871263464433</v>
       </c>
       <c r="D38">
-        <v>-0.007650512935139625</v>
+        <v>-0.0008263826357126446</v>
       </c>
       <c r="E38">
-        <v>-0.01917399484989958</v>
+        <v>-0.001137876581746283</v>
       </c>
       <c r="F38">
-        <v>-0.03238063618239744</v>
+        <v>0.0009355850966628697</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1249652932538062</v>
+        <v>-0.1077192030015339</v>
       </c>
       <c r="C39">
-        <v>-0.1156526941780447</v>
+        <v>-0.01688117441842102</v>
       </c>
       <c r="D39">
-        <v>-0.07069943700516355</v>
+        <v>-0.1549994129844783</v>
       </c>
       <c r="E39">
-        <v>0.1446604427078278</v>
+        <v>-0.06280506355440359</v>
       </c>
       <c r="F39">
-        <v>-0.0006050699600458679</v>
+        <v>-0.02479279550597725</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.006463917770578996</v>
+        <v>-0.03704755148231326</v>
       </c>
       <c r="C40">
-        <v>-0.02831961102449111</v>
+        <v>-0.007320458960020203</v>
       </c>
       <c r="D40">
-        <v>0.01304258540126411</v>
+        <v>-0.03163172953947137</v>
       </c>
       <c r="E40">
-        <v>-0.06660477897473542</v>
+        <v>-0.00359826475329766</v>
       </c>
       <c r="F40">
-        <v>-0.03810941008199083</v>
+        <v>0.01355619022056877</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02585302022706147</v>
+        <v>-0.02634449759528603</v>
       </c>
       <c r="C41">
-        <v>-0.001855991753409981</v>
+        <v>-0.006581889059973344</v>
       </c>
       <c r="D41">
-        <v>0.003544702059767337</v>
+        <v>-0.01163534103416824</v>
       </c>
       <c r="E41">
-        <v>0.006804817173963719</v>
+        <v>-0.01270508974332665</v>
       </c>
       <c r="F41">
-        <v>-0.007089632240415436</v>
+        <v>0.008698820239427698</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03630396434286495</v>
+        <v>-0.04050029248848053</v>
       </c>
       <c r="C43">
-        <v>-0.004787431627902024</v>
+        <v>-0.006775898858926574</v>
       </c>
       <c r="D43">
-        <v>-0.01733756468987008</v>
+        <v>-0.02100833791875628</v>
       </c>
       <c r="E43">
-        <v>0.003032531480186168</v>
+        <v>-0.02489436208210666</v>
       </c>
       <c r="F43">
-        <v>0.003184941609917341</v>
+        <v>0.01333674974676107</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.129500503983545</v>
+        <v>-0.07618870606110176</v>
       </c>
       <c r="C44">
-        <v>-0.1460951543083213</v>
+        <v>-0.02181009670938928</v>
       </c>
       <c r="D44">
-        <v>-0.0643995597005563</v>
+        <v>-0.09429082797170532</v>
       </c>
       <c r="E44">
-        <v>-0.09076049797439953</v>
+        <v>-0.07605524272244274</v>
       </c>
       <c r="F44">
-        <v>-0.1116497483737569</v>
+        <v>-0.1853622586977115</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01886092235548174</v>
+        <v>-0.02225444741809813</v>
       </c>
       <c r="C46">
-        <v>0.01281474726828619</v>
+        <v>-0.003803424764417211</v>
       </c>
       <c r="D46">
-        <v>-0.02090859874992587</v>
+        <v>-0.01191779123888361</v>
       </c>
       <c r="E46">
-        <v>-0.02289096785852074</v>
+        <v>-0.02361423668130864</v>
       </c>
       <c r="F46">
-        <v>-0.03125281292878145</v>
+        <v>-0.0003270840514167593</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03726039471053073</v>
+        <v>-0.05168469967648526</v>
       </c>
       <c r="C47">
-        <v>-0.02473582484883993</v>
+        <v>-0.003282471260787014</v>
       </c>
       <c r="D47">
-        <v>0.003333360229989864</v>
+        <v>-0.01409967761694885</v>
       </c>
       <c r="E47">
-        <v>0.007256640098466538</v>
+        <v>-0.02222931562680966</v>
       </c>
       <c r="F47">
-        <v>-3.455013138785915e-05</v>
+        <v>0.04482194096948031</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.03641265187510957</v>
+        <v>-0.04734279173503327</v>
       </c>
       <c r="C48">
-        <v>-0.0005668701493906172</v>
+        <v>-0.002839458734373496</v>
       </c>
       <c r="D48">
-        <v>-0.008446412269543412</v>
+        <v>-0.04911244253865874</v>
       </c>
       <c r="E48">
-        <v>0.005975199022951919</v>
+        <v>0.00381089386823706</v>
       </c>
       <c r="F48">
-        <v>-0.002381230983138886</v>
+        <v>-0.01012539603526165</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2297440784136782</v>
+        <v>-0.2027681239886235</v>
       </c>
       <c r="C49">
-        <v>0.003204055579185683</v>
+        <v>-0.01771865192495925</v>
       </c>
       <c r="D49">
-        <v>0.04271580002889346</v>
+        <v>0.01077686718735734</v>
       </c>
       <c r="E49">
-        <v>0.02136620392760413</v>
+        <v>-0.03247643668962236</v>
       </c>
       <c r="F49">
-        <v>-0.0494500323504936</v>
+        <v>-0.03045281504850102</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03792108638312337</v>
+        <v>-0.04808585343936454</v>
       </c>
       <c r="C50">
-        <v>-0.02538709258182201</v>
+        <v>-0.01108802895731927</v>
       </c>
       <c r="D50">
-        <v>0.006525066026560306</v>
+        <v>-0.02671701338245679</v>
       </c>
       <c r="E50">
-        <v>0.01000787747582203</v>
+        <v>-0.02990307080068316</v>
       </c>
       <c r="F50">
-        <v>-0.0008036614192887169</v>
+        <v>-0.008607750690244503</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01217138870359305</v>
+        <v>-0.002263912464015645</v>
       </c>
       <c r="C51">
-        <v>0.01708963416971599</v>
+        <v>-0.0005696399004653831</v>
       </c>
       <c r="D51">
-        <v>-0.01495802929972757</v>
+        <v>0.002424212839935336</v>
       </c>
       <c r="E51">
-        <v>-0.006730813586062516</v>
+        <v>0.0001370131945462667</v>
       </c>
       <c r="F51">
-        <v>-0.01177431411491541</v>
+        <v>-0.00474766345538466</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1048709470061295</v>
+        <v>-0.1446539499165524</v>
       </c>
       <c r="C52">
-        <v>-0.08125810255688454</v>
+        <v>-0.01379444087355338</v>
       </c>
       <c r="D52">
-        <v>-0.01503043641336812</v>
+        <v>-0.05176373961238224</v>
       </c>
       <c r="E52">
-        <v>0.009876818934591575</v>
+        <v>-0.02433839233218252</v>
       </c>
       <c r="F52">
-        <v>-0.01408889417786664</v>
+        <v>-0.03323740284534051</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1624798728393782</v>
+        <v>-0.1740203931369634</v>
       </c>
       <c r="C53">
-        <v>-0.03835617936311736</v>
+        <v>-0.01662825317428512</v>
       </c>
       <c r="D53">
-        <v>-0.01120715465040141</v>
+        <v>-0.01203889199347292</v>
       </c>
       <c r="E53">
-        <v>-0.02291272799610933</v>
+        <v>-0.03549494727125817</v>
       </c>
       <c r="F53">
-        <v>-0.03207745433077817</v>
+        <v>-0.0657462421738131</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04971814396737403</v>
+        <v>-0.02164800674870061</v>
       </c>
       <c r="C54">
-        <v>-0.03885515455062082</v>
+        <v>-0.0123297871929857</v>
       </c>
       <c r="D54">
-        <v>-0.003575587933379045</v>
+        <v>-0.03272865639711463</v>
       </c>
       <c r="E54">
-        <v>-0.0242990243914757</v>
+        <v>-0.01600306711627198</v>
       </c>
       <c r="F54">
-        <v>-0.0039934075256941</v>
+        <v>0.005857494318997809</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08354853260747511</v>
+        <v>-0.114411643584171</v>
       </c>
       <c r="C55">
-        <v>-0.02512709305117078</v>
+        <v>-0.01546746235899696</v>
       </c>
       <c r="D55">
-        <v>-0.06208503617745423</v>
+        <v>-0.01102014442416679</v>
       </c>
       <c r="E55">
-        <v>0.02491976531212602</v>
+        <v>-0.03007717459842757</v>
       </c>
       <c r="F55">
-        <v>-0.01143866121420991</v>
+        <v>-0.04450357864340423</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1564647742010191</v>
+        <v>-0.1775879865191368</v>
       </c>
       <c r="C56">
-        <v>-0.05199702771640819</v>
+        <v>-0.01411375198957937</v>
       </c>
       <c r="D56">
-        <v>-0.02414541454771141</v>
+        <v>-0.007797347841852512</v>
       </c>
       <c r="E56">
-        <v>0.01081791399435759</v>
+        <v>-0.03949402727153016</v>
       </c>
       <c r="F56">
-        <v>-0.05490070734349887</v>
+        <v>-0.04094153062809243</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04756883779019848</v>
+        <v>-0.04629089830045646</v>
       </c>
       <c r="C58">
-        <v>-0.01956680404834234</v>
+        <v>-0.001625270195839654</v>
       </c>
       <c r="D58">
-        <v>0.01091846858625642</v>
+        <v>-0.06614840674313778</v>
       </c>
       <c r="E58">
-        <v>-0.05174666440914458</v>
+        <v>-0.02435566423184185</v>
       </c>
       <c r="F58">
-        <v>-0.02156270749092853</v>
+        <v>0.04377130808288263</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1775584860674873</v>
+        <v>-0.1727822034754604</v>
       </c>
       <c r="C59">
-        <v>0.2512389357129435</v>
+        <v>-0.01697761634933625</v>
       </c>
       <c r="D59">
-        <v>-0.03166685218975551</v>
+        <v>0.2232448216814516</v>
       </c>
       <c r="E59">
-        <v>0.04299057368270385</v>
+        <v>0.04930811064808939</v>
       </c>
       <c r="F59">
-        <v>-0.01450823245801159</v>
+        <v>0.03261443876473542</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2713837363312649</v>
+        <v>-0.2359514622585769</v>
       </c>
       <c r="C60">
-        <v>-0.176156994873044</v>
+        <v>0.003881209363133569</v>
       </c>
       <c r="D60">
-        <v>0.02900761987438001</v>
+        <v>-0.04796323787878393</v>
       </c>
       <c r="E60">
-        <v>0.06650949143174381</v>
+        <v>-0.007468171949093805</v>
       </c>
       <c r="F60">
-        <v>-0.1795652394612095</v>
+        <v>0.03158393250696157</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1146912282020833</v>
+        <v>-0.0829258981710842</v>
       </c>
       <c r="C61">
-        <v>-0.07166331245689664</v>
+        <v>-0.01305907588047081</v>
       </c>
       <c r="D61">
-        <v>-0.05387498509145752</v>
+        <v>-0.1140976584151969</v>
       </c>
       <c r="E61">
-        <v>0.08784682103371967</v>
+        <v>-0.04284082793072488</v>
       </c>
       <c r="F61">
-        <v>-0.03149801959468494</v>
+        <v>-0.01328518382400152</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1546725924251492</v>
+        <v>-0.1701676333674115</v>
       </c>
       <c r="C62">
-        <v>-0.04026975138788453</v>
+        <v>-0.01786233814787315</v>
       </c>
       <c r="D62">
-        <v>-0.02667127718320954</v>
+        <v>-0.01185017405676965</v>
       </c>
       <c r="E62">
-        <v>-0.005779386429098165</v>
+        <v>-0.03646923959772568</v>
       </c>
       <c r="F62">
-        <v>-0.0459669781200379</v>
+        <v>-0.02206922284761963</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03666147351063866</v>
+        <v>-0.04248272723829351</v>
       </c>
       <c r="C63">
-        <v>0.008664419723009931</v>
+        <v>-0.002965808896243133</v>
       </c>
       <c r="D63">
-        <v>-0.009000470830358882</v>
+        <v>-0.05183984833118535</v>
       </c>
       <c r="E63">
-        <v>0.001119176332513669</v>
+        <v>-0.02264157790914522</v>
       </c>
       <c r="F63">
-        <v>0.04581001102338275</v>
+        <v>-0.005063999417403387</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09625992934387036</v>
+        <v>-0.1117848941183667</v>
       </c>
       <c r="C64">
-        <v>-0.02124025150362598</v>
+        <v>-0.01126929219064948</v>
       </c>
       <c r="D64">
-        <v>-0.005390651387553089</v>
+        <v>-0.04381527946704289</v>
       </c>
       <c r="E64">
-        <v>0.006867203970665671</v>
+        <v>-0.02079790877898376</v>
       </c>
       <c r="F64">
-        <v>-0.06381231186242851</v>
+        <v>-0.0253356789121693</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1112361989402569</v>
+        <v>-0.1457933841844782</v>
       </c>
       <c r="C65">
-        <v>0.009198654706155364</v>
+        <v>-0.03118950120126994</v>
       </c>
       <c r="D65">
-        <v>-0.007919830985948284</v>
+        <v>0.04288529145905275</v>
       </c>
       <c r="E65">
-        <v>0.005539222928987142</v>
+        <v>0.00131185171377993</v>
       </c>
       <c r="F65">
-        <v>0.05775608553416911</v>
+        <v>-0.04852300296449743</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1431949720305487</v>
+        <v>-0.1288022485146978</v>
       </c>
       <c r="C66">
-        <v>-0.129987944686338</v>
+        <v>-0.01473813683162486</v>
       </c>
       <c r="D66">
-        <v>-0.06879017489022503</v>
+        <v>-0.1425564199288778</v>
       </c>
       <c r="E66">
-        <v>0.119139342821597</v>
+        <v>-0.06949772416012365</v>
       </c>
       <c r="F66">
-        <v>-0.02130346789063965</v>
+        <v>-0.03014703913492186</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06598041871290684</v>
+        <v>-0.06214995788233957</v>
       </c>
       <c r="C67">
-        <v>-0.04341177406522186</v>
+        <v>-0.003272869412288113</v>
       </c>
       <c r="D67">
-        <v>-0.09146606783585896</v>
+        <v>-0.05314776090642696</v>
       </c>
       <c r="E67">
-        <v>-0.01824897058901996</v>
+        <v>-0.01749858867349394</v>
       </c>
       <c r="F67">
-        <v>-0.02486467123961785</v>
+        <v>0.0409328463575669</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.09908295250008475</v>
+        <v>-0.1171204159077762</v>
       </c>
       <c r="C68">
-        <v>0.2673136097958622</v>
+        <v>-0.02678947446412812</v>
       </c>
       <c r="D68">
-        <v>0.004260061131026252</v>
+        <v>0.2614652750490169</v>
       </c>
       <c r="E68">
-        <v>0.04114250633839592</v>
+        <v>0.0877605821342249</v>
       </c>
       <c r="F68">
-        <v>0.03189447137520163</v>
+        <v>-0.03261058346641148</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03255697759902985</v>
+        <v>-0.03935361887764507</v>
       </c>
       <c r="C69">
-        <v>0.00634827962027757</v>
+        <v>-0.001000945219764574</v>
       </c>
       <c r="D69">
-        <v>-0.03181277410032873</v>
+        <v>-0.009588993921994004</v>
       </c>
       <c r="E69">
-        <v>-0.0005403024253980617</v>
+        <v>-0.02421985959400651</v>
       </c>
       <c r="F69">
-        <v>-0.01659651562440868</v>
+        <v>0.01066935449926801</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03312936572351421</v>
+        <v>-0.06250465613695221</v>
       </c>
       <c r="C70">
-        <v>0.007610220188294122</v>
+        <v>0.0283481321570559</v>
       </c>
       <c r="D70">
-        <v>-0.04345071717432065</v>
+        <v>-0.03006386035909168</v>
       </c>
       <c r="E70">
-        <v>0.03761075518266205</v>
+        <v>0.05083873918677596</v>
       </c>
       <c r="F70">
-        <v>-0.03563923390597259</v>
+        <v>0.2755910046660968</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1163036996366254</v>
+        <v>-0.1363639263208869</v>
       </c>
       <c r="C71">
-        <v>0.2889823633089945</v>
+        <v>-0.03103237420460813</v>
       </c>
       <c r="D71">
-        <v>-0.01145630948292128</v>
+        <v>0.2764007111123109</v>
       </c>
       <c r="E71">
-        <v>0.03313715734988018</v>
+        <v>0.09624626952515147</v>
       </c>
       <c r="F71">
-        <v>-0.01469437587625815</v>
+        <v>-0.03848841222136728</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1438432390140437</v>
+        <v>-0.1407422337430118</v>
       </c>
       <c r="C72">
-        <v>-0.005428750922318136</v>
+        <v>-0.02471631046926244</v>
       </c>
       <c r="D72">
-        <v>-0.003100101920913456</v>
+        <v>-0.004992918395810231</v>
       </c>
       <c r="E72">
-        <v>-0.01477899034777265</v>
+        <v>-0.04534303115458407</v>
       </c>
       <c r="F72">
-        <v>0.009556414495772974</v>
+        <v>-0.023784270673023</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2257461785603009</v>
+        <v>-0.2032729319664224</v>
       </c>
       <c r="C73">
-        <v>-0.03393379337945786</v>
+        <v>-0.01178725000737503</v>
       </c>
       <c r="D73">
-        <v>-0.06003957756273743</v>
+        <v>-0.01612864098799573</v>
       </c>
       <c r="E73">
-        <v>0.06476071121989718</v>
+        <v>-0.06277811653383421</v>
       </c>
       <c r="F73">
-        <v>-0.1195019554265097</v>
+        <v>-0.03172503822913779</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1197090529225287</v>
+        <v>-0.09470141431857049</v>
       </c>
       <c r="C74">
-        <v>-0.05712391216998189</v>
+        <v>-0.01228078170965376</v>
       </c>
       <c r="D74">
-        <v>-0.03574724649024467</v>
+        <v>-0.02073882743700472</v>
       </c>
       <c r="E74">
-        <v>-0.006621505843024874</v>
+        <v>-0.04827305077656772</v>
       </c>
       <c r="F74">
-        <v>-0.02020560058023146</v>
+        <v>-0.04849971325831563</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1170765004596848</v>
+        <v>-0.1295107555246691</v>
       </c>
       <c r="C75">
-        <v>-0.05077314958721584</v>
+        <v>-0.02655359083406098</v>
       </c>
       <c r="D75">
-        <v>-0.01072528140681219</v>
+        <v>-0.03446496086954753</v>
       </c>
       <c r="E75">
-        <v>-0.01069198970986264</v>
+        <v>-0.06060237528450185</v>
       </c>
       <c r="F75">
-        <v>0.004562829634940328</v>
+        <v>-0.01312479729684436</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02167388611439601</v>
+        <v>-0.003858420373267728</v>
       </c>
       <c r="C76">
-        <v>0.01887101506303457</v>
+        <v>-0.0009181106495725891</v>
       </c>
       <c r="D76">
-        <v>-0.0132718455831277</v>
+        <v>0.002980655324642987</v>
       </c>
       <c r="E76">
-        <v>0.01040837607562927</v>
+        <v>-0.0002744818130233075</v>
       </c>
       <c r="F76">
-        <v>-0.01729298726770027</v>
+        <v>-0.003980845690986339</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06685772554291876</v>
+        <v>-0.07789315357623117</v>
       </c>
       <c r="C77">
-        <v>-0.06151705986656962</v>
+        <v>-0.009121781876864059</v>
       </c>
       <c r="D77">
-        <v>0.02011868553993798</v>
+        <v>-0.1167821328707217</v>
       </c>
       <c r="E77">
-        <v>-0.005257642192096616</v>
+        <v>-0.03865341040138704</v>
       </c>
       <c r="F77">
-        <v>-0.05620595774039553</v>
+        <v>-0.03162312615605802</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1201406488575371</v>
+        <v>-0.1042378546899867</v>
       </c>
       <c r="C78">
-        <v>-0.04385439511988688</v>
+        <v>-0.04069453043380679</v>
       </c>
       <c r="D78">
-        <v>-0.1002620974192175</v>
+        <v>-0.1158638949917191</v>
       </c>
       <c r="E78">
-        <v>-0.3296871050685946</v>
+        <v>-0.08125221762442773</v>
       </c>
       <c r="F78">
-        <v>0.2839791331427635</v>
+        <v>-0.06992752665205118</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1365912442493683</v>
+        <v>-0.1639804394988738</v>
       </c>
       <c r="C79">
-        <v>-0.04900401246546583</v>
+        <v>-0.02056567767604398</v>
       </c>
       <c r="D79">
-        <v>0.007722248644770747</v>
+        <v>-0.01973817721313524</v>
       </c>
       <c r="E79">
-        <v>-0.0008682315829282638</v>
+        <v>-0.04934710574032108</v>
       </c>
       <c r="F79">
-        <v>-0.02277393905312662</v>
+        <v>-0.004118349726173289</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07475201608396496</v>
+        <v>-0.08077177213289953</v>
       </c>
       <c r="C80">
-        <v>-0.065152013889532</v>
+        <v>0.0009275805260042908</v>
       </c>
       <c r="D80">
-        <v>-0.07275497142332284</v>
+        <v>-0.0573714301690429</v>
       </c>
       <c r="E80">
-        <v>0.02815067153990465</v>
+        <v>-0.03693282941433425</v>
       </c>
       <c r="F80">
-        <v>-0.01086267801541603</v>
+        <v>0.01565655066877046</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1395930461351629</v>
+        <v>-0.1234291984273212</v>
       </c>
       <c r="C81">
-        <v>-0.06716483748044459</v>
+        <v>-0.03040367428558013</v>
       </c>
       <c r="D81">
-        <v>-0.02009967739157703</v>
+        <v>-0.01863658513177335</v>
       </c>
       <c r="E81">
-        <v>-0.008218914720924848</v>
+        <v>-0.05971644951594284</v>
       </c>
       <c r="F81">
-        <v>-0.01731240459162498</v>
+        <v>-0.005938464770713434</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.159220627374439</v>
+        <v>-0.1642984979091215</v>
       </c>
       <c r="C82">
-        <v>-0.04620689039437945</v>
+        <v>-0.02219451756255791</v>
       </c>
       <c r="D82">
-        <v>-0.03219295940789325</v>
+        <v>-0.01375354958869719</v>
       </c>
       <c r="E82">
-        <v>0.02832077787645632</v>
+        <v>-0.03570756600457681</v>
       </c>
       <c r="F82">
-        <v>-0.03652440264774596</v>
+        <v>-0.06655163508093462</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08699018839105122</v>
+        <v>-0.06244707306701953</v>
       </c>
       <c r="C83">
-        <v>-0.1132025728289343</v>
+        <v>-0.003229972603859175</v>
       </c>
       <c r="D83">
-        <v>0.01072500967320155</v>
+        <v>-0.05085702776572069</v>
       </c>
       <c r="E83">
-        <v>-0.02973749502474551</v>
+        <v>-0.005384948021246594</v>
       </c>
       <c r="F83">
-        <v>0.0276718113783935</v>
+        <v>0.04295824509889062</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06397043188400084</v>
+        <v>-0.05913536879158283</v>
       </c>
       <c r="C84">
-        <v>0.01789814148190722</v>
+        <v>-0.01094768915811529</v>
       </c>
       <c r="D84">
-        <v>0.01752160031402519</v>
+        <v>-0.06448491955074553</v>
       </c>
       <c r="E84">
-        <v>0.0659436935584419</v>
+        <v>-0.003507961074839891</v>
       </c>
       <c r="F84">
-        <v>-0.06402806870455685</v>
+        <v>-0.01114942279775337</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1252036416160459</v>
+        <v>-0.1390488626684533</v>
       </c>
       <c r="C85">
-        <v>-0.03586183531105246</v>
+        <v>-0.026167416801476</v>
       </c>
       <c r="D85">
-        <v>-0.01343670744644757</v>
+        <v>-0.01534381518754692</v>
       </c>
       <c r="E85">
-        <v>-0.0004624226920747342</v>
+        <v>-0.04129894274596464</v>
       </c>
       <c r="F85">
-        <v>-0.04003801508680917</v>
+        <v>-0.04520339711543683</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1640876272382571</v>
+        <v>-0.09464616783814429</v>
       </c>
       <c r="C86">
-        <v>-0.08790967823683585</v>
+        <v>0.006788595763397493</v>
       </c>
       <c r="D86">
-        <v>0.9409015097999972</v>
+        <v>-0.02296786033684033</v>
       </c>
       <c r="E86">
-        <v>-0.05509827752218108</v>
+        <v>-0.1503636247631823</v>
       </c>
       <c r="F86">
-        <v>0.04531725070895452</v>
+        <v>0.869811702079119</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1216028228941969</v>
+        <v>-0.09613980725790874</v>
       </c>
       <c r="C87">
-        <v>-0.1097033012076953</v>
+        <v>-0.02226836229411339</v>
       </c>
       <c r="D87">
-        <v>-0.01286304924580684</v>
+        <v>-0.0894631279206454</v>
       </c>
       <c r="E87">
-        <v>-0.0004694839852171237</v>
+        <v>0.05321857026637872</v>
       </c>
       <c r="F87">
-        <v>-0.03404220100302046</v>
+        <v>-0.0818849553462299</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05250717099734144</v>
+        <v>-0.06092736687957863</v>
       </c>
       <c r="C88">
-        <v>-0.03141155221439184</v>
+        <v>-0.002809098192179803</v>
       </c>
       <c r="D88">
-        <v>-0.02827446763502002</v>
+        <v>-0.05370897254781114</v>
       </c>
       <c r="E88">
-        <v>0.05695194916346949</v>
+        <v>-0.02768168321455719</v>
       </c>
       <c r="F88">
-        <v>-0.002943483911275544</v>
+        <v>-0.008252157937468918</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.168997778398101</v>
+        <v>-0.1365992423129705</v>
       </c>
       <c r="C89">
-        <v>0.3607404077729456</v>
+        <v>-0.00942066291697607</v>
       </c>
       <c r="D89">
-        <v>-0.003177552211628643</v>
+        <v>0.2555251674699967</v>
       </c>
       <c r="E89">
-        <v>-0.03631254896758234</v>
+        <v>0.09218973401015663</v>
       </c>
       <c r="F89">
-        <v>-0.02275173487682514</v>
+        <v>-0.01714235286140219</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1259354044516676</v>
+        <v>-0.1476673860159352</v>
       </c>
       <c r="C90">
-        <v>0.2760816253734352</v>
+        <v>-0.0268018446327963</v>
       </c>
       <c r="D90">
-        <v>0.0007057979356683853</v>
+        <v>0.2663856691229674</v>
       </c>
       <c r="E90">
-        <v>0.05093311029819984</v>
+        <v>0.1089160807902813</v>
       </c>
       <c r="F90">
-        <v>-0.0160108918516356</v>
+        <v>-0.02134469641111798</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08329198224805935</v>
+        <v>-0.119229500479557</v>
       </c>
       <c r="C91">
-        <v>-0.04335530181919903</v>
+        <v>-0.01676731663921195</v>
       </c>
       <c r="D91">
-        <v>0.01014285475840649</v>
+        <v>0.007472012725994352</v>
       </c>
       <c r="E91">
-        <v>-0.0009303928953137083</v>
+        <v>-0.05707305109205605</v>
       </c>
       <c r="F91">
-        <v>-0.03091819808785457</v>
+        <v>0.01755949660668652</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1411103694525754</v>
+        <v>-0.150606827363542</v>
       </c>
       <c r="C92">
-        <v>0.3227023307322917</v>
+        <v>-0.01858395040755302</v>
       </c>
       <c r="D92">
-        <v>-0.0007453773137942276</v>
+        <v>0.2950718859975867</v>
       </c>
       <c r="E92">
-        <v>-0.01327105458333288</v>
+        <v>0.1046803532539761</v>
       </c>
       <c r="F92">
-        <v>-0.0001903445983086324</v>
+        <v>-0.01625719375719348</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1300578945792251</v>
+        <v>-0.1521010853598686</v>
       </c>
       <c r="C93">
-        <v>0.3216042294198597</v>
+        <v>-0.02286390651076374</v>
       </c>
       <c r="D93">
-        <v>0.02125880374025136</v>
+        <v>0.2662643910549317</v>
       </c>
       <c r="E93">
-        <v>0.07892630992425979</v>
+        <v>0.07584639113752883</v>
       </c>
       <c r="F93">
-        <v>-0.02417641477942377</v>
+        <v>-0.01552554352201464</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1390795444633021</v>
+        <v>-0.1328032352607419</v>
       </c>
       <c r="C94">
-        <v>-0.05172104578630111</v>
+        <v>-0.02378426695418333</v>
       </c>
       <c r="D94">
-        <v>-0.04797022600090653</v>
+        <v>-0.04606610791091034</v>
       </c>
       <c r="E94">
-        <v>-0.02206270128665381</v>
+        <v>-0.0609356565038618</v>
       </c>
       <c r="F94">
-        <v>-0.02086076070758319</v>
+        <v>-0.03135529755947859</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1133097398864968</v>
+        <v>-0.1247871451035196</v>
       </c>
       <c r="C95">
-        <v>-0.03049425500760045</v>
+        <v>-0.00503336766640335</v>
       </c>
       <c r="D95">
-        <v>-0.03254030512494919</v>
+        <v>-0.09038066616704757</v>
       </c>
       <c r="E95">
-        <v>-0.03761350062421214</v>
+        <v>-0.04446362499750144</v>
       </c>
       <c r="F95">
-        <v>-0.05010106592534166</v>
+        <v>0.01428779604807413</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01400682865374184</v>
+        <v>-0.09887575281528031</v>
       </c>
       <c r="C96">
-        <v>-5.684198353812412e-05</v>
+        <v>0.9888191927801097</v>
       </c>
       <c r="D96">
-        <v>0.001982463534275535</v>
+        <v>0.03308219561287122</v>
       </c>
       <c r="E96">
-        <v>-0.007646003486067135</v>
+        <v>-0.05841988964144954</v>
       </c>
       <c r="F96">
-        <v>0.003257125973261044</v>
+        <v>-0.04639345540996899</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1744247875180224</v>
+        <v>-0.1891679233577729</v>
       </c>
       <c r="C97">
-        <v>-0.03660172090235574</v>
+        <v>0.01061280171246083</v>
       </c>
       <c r="D97">
-        <v>-0.05644396875034004</v>
+        <v>0.008668079935783442</v>
       </c>
       <c r="E97">
-        <v>-0.1222209739148476</v>
+        <v>-0.017321060057076</v>
       </c>
       <c r="F97">
-        <v>0.8532272264625226</v>
+        <v>0.1578448673114661</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2445349286759207</v>
+        <v>-0.2053678292875628</v>
       </c>
       <c r="C98">
-        <v>-0.008187040803043711</v>
+        <v>-0.007051447991967864</v>
       </c>
       <c r="D98">
-        <v>0.01105153901843037</v>
+        <v>-0.009925413825340646</v>
       </c>
       <c r="E98">
-        <v>-0.08685129051432736</v>
+        <v>0.09842943875936015</v>
       </c>
       <c r="F98">
-        <v>-0.01526001290041456</v>
+        <v>0.1108868270294508</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04008294217634007</v>
+        <v>-0.0554964081379825</v>
       </c>
       <c r="C99">
-        <v>0.02086990559862326</v>
+        <v>0.003960431970731274</v>
       </c>
       <c r="D99">
-        <v>-0.03833826918111707</v>
+        <v>-0.03648076464816807</v>
       </c>
       <c r="E99">
-        <v>-0.0234653612879503</v>
+        <v>-0.02726872040301041</v>
       </c>
       <c r="F99">
-        <v>-0.01131305376302822</v>
+        <v>-0.003073314308415855</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.02328432944027359</v>
+        <v>-0.1221436410840317</v>
       </c>
       <c r="C100">
-        <v>-0.04995690754168574</v>
+        <v>0.05169875608594258</v>
       </c>
       <c r="D100">
-        <v>-0.1319749093900933</v>
+        <v>-0.3497711713147005</v>
       </c>
       <c r="E100">
-        <v>0.0515440661344078</v>
+        <v>0.8933691508934249</v>
       </c>
       <c r="F100">
-        <v>0.04633162671141673</v>
+        <v>0.07238808008241193</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03156033754935172</v>
+        <v>-0.02686355471829412</v>
       </c>
       <c r="C101">
-        <v>-0.01665920966889206</v>
+        <v>-0.008765343755273729</v>
       </c>
       <c r="D101">
-        <v>-0.008003761642064105</v>
+        <v>-0.02980555195197214</v>
       </c>
       <c r="E101">
-        <v>0.03908662802783622</v>
+        <v>-0.01146455842939294</v>
       </c>
       <c r="F101">
-        <v>-0.03059052369732217</v>
+        <v>0.01537941716796582</v>
       </c>
     </row>
     <row r="102" spans="1:6">
